--- a/Real/jung9.xlsx
+++ b/Real/jung9.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kang/Pandas/Real/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8B2AD9-9A1F-5743-8EFF-600E7461CC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$267</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="207">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -654,19 +635,13 @@
   </si>
   <si>
     <t>신축</t>
-  </si>
-  <si>
-    <t>평</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,13 +657,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -698,7 +666,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -721,46 +689,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -807,7 +750,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,27 +782,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -891,24 +816,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1084,20 +991,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S267"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,11 +1050,8 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>93905</v>
       </c>
@@ -1208,12 +1106,8 @@
       <c r="R2" t="s">
         <v>204</v>
       </c>
-      <c r="S2" s="2">
-        <f>G2/3.3</f>
-        <v>24.242424242424242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>93906</v>
       </c>
@@ -1268,12 +1162,8 @@
       <c r="R3" t="s">
         <v>204</v>
       </c>
-      <c r="S3" s="2">
-        <f t="shared" ref="S3:S66" si="0">G3/3.3</f>
-        <v>32.727272727272727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>93919</v>
       </c>
@@ -1328,12 +1218,8 @@
       <c r="R4" t="s">
         <v>204</v>
       </c>
-      <c r="S4" s="2">
-        <f t="shared" si="0"/>
-        <v>22.121212121212121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>93920</v>
       </c>
@@ -1388,12 +1274,8 @@
       <c r="R5" t="s">
         <v>204</v>
       </c>
-      <c r="S5" s="2">
-        <f t="shared" si="0"/>
-        <v>22.121212121212121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>93921</v>
       </c>
@@ -1448,12 +1330,8 @@
       <c r="R6" t="s">
         <v>204</v>
       </c>
-      <c r="S6" s="2">
-        <f t="shared" si="0"/>
-        <v>22.121212121212121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>93922</v>
       </c>
@@ -1508,12 +1386,8 @@
       <c r="R7" t="s">
         <v>204</v>
       </c>
-      <c r="S7" s="2">
-        <f t="shared" si="0"/>
-        <v>16.969696969696969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>93935</v>
       </c>
@@ -1568,12 +1442,8 @@
       <c r="R8" t="s">
         <v>205</v>
       </c>
-      <c r="S8" s="2">
-        <f t="shared" si="0"/>
-        <v>15.757575757575758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>93936</v>
       </c>
@@ -1628,12 +1498,8 @@
       <c r="R9" t="s">
         <v>205</v>
       </c>
-      <c r="S9" s="2">
-        <f t="shared" si="0"/>
-        <v>15.757575757575758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>93937</v>
       </c>
@@ -1688,12 +1554,8 @@
       <c r="R10" t="s">
         <v>205</v>
       </c>
-      <c r="S10" s="2">
-        <f t="shared" si="0"/>
-        <v>15.757575757575758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>93940</v>
       </c>
@@ -1748,12 +1610,8 @@
       <c r="R11" t="s">
         <v>205</v>
       </c>
-      <c r="S11" s="2">
-        <f t="shared" si="0"/>
-        <v>16.363636363636363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>93941</v>
       </c>
@@ -1808,12 +1666,8 @@
       <c r="R12" t="s">
         <v>205</v>
       </c>
-      <c r="S12" s="2">
-        <f t="shared" si="0"/>
-        <v>25.151515151515152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>93942</v>
       </c>
@@ -1868,12 +1722,8 @@
       <c r="R13" t="s">
         <v>205</v>
       </c>
-      <c r="S13" s="2">
-        <f t="shared" si="0"/>
-        <v>22.72727272727273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>93944</v>
       </c>
@@ -1928,12 +1778,8 @@
       <c r="R14" t="s">
         <v>205</v>
       </c>
-      <c r="S14" s="2">
-        <f t="shared" si="0"/>
-        <v>20.90909090909091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>93956</v>
       </c>
@@ -1988,12 +1834,8 @@
       <c r="R15" t="s">
         <v>206</v>
       </c>
-      <c r="S15" s="2">
-        <f t="shared" si="0"/>
-        <v>9.3939393939393945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>93960</v>
       </c>
@@ -2048,12 +1890,8 @@
       <c r="R16" t="s">
         <v>206</v>
       </c>
-      <c r="S16" s="2">
-        <f t="shared" si="0"/>
-        <v>9.3939393939393945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>93961</v>
       </c>
@@ -2108,12 +1946,8 @@
       <c r="R17" t="s">
         <v>206</v>
       </c>
-      <c r="S17" s="2">
-        <f t="shared" si="0"/>
-        <v>12.727272727272728</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>93965</v>
       </c>
@@ -2168,12 +2002,8 @@
       <c r="R18" t="s">
         <v>204</v>
       </c>
-      <c r="S18" s="2">
-        <f t="shared" si="0"/>
-        <v>19.696969696969699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>93966</v>
       </c>
@@ -2228,12 +2058,8 @@
       <c r="R19" t="s">
         <v>204</v>
       </c>
-      <c r="S19" s="2">
-        <f t="shared" si="0"/>
-        <v>21.212121212121215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>93967</v>
       </c>
@@ -2288,12 +2114,8 @@
       <c r="R20" t="s">
         <v>204</v>
       </c>
-      <c r="S20" s="2">
-        <f t="shared" si="0"/>
-        <v>23.636363636363637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>93968</v>
       </c>
@@ -2348,12 +2170,8 @@
       <c r="R21" t="s">
         <v>204</v>
       </c>
-      <c r="S21" s="2">
-        <f t="shared" si="0"/>
-        <v>21.212121212121215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>93969</v>
       </c>
@@ -2408,12 +2226,8 @@
       <c r="R22" t="s">
         <v>204</v>
       </c>
-      <c r="S22" s="2">
-        <f t="shared" si="0"/>
-        <v>21.212121212121215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>93970</v>
       </c>
@@ -2468,12 +2282,8 @@
       <c r="R23" t="s">
         <v>204</v>
       </c>
-      <c r="S23" s="2">
-        <f t="shared" si="0"/>
-        <v>19.090909090909093</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>93971</v>
       </c>
@@ -2528,12 +2338,8 @@
       <c r="R24" t="s">
         <v>204</v>
       </c>
-      <c r="S24" s="2">
-        <f t="shared" si="0"/>
-        <v>19.090909090909093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>93981</v>
       </c>
@@ -2588,12 +2394,8 @@
       <c r="R25" t="s">
         <v>204</v>
       </c>
-      <c r="S25" s="2">
-        <f t="shared" si="0"/>
-        <v>14.84848484848485</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>93982</v>
       </c>
@@ -2648,12 +2450,8 @@
       <c r="R26" t="s">
         <v>204</v>
       </c>
-      <c r="S26" s="2">
-        <f t="shared" si="0"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>93983</v>
       </c>
@@ -2708,12 +2506,8 @@
       <c r="R27" t="s">
         <v>204</v>
       </c>
-      <c r="S27" s="2">
-        <f t="shared" si="0"/>
-        <v>16.969696969696969</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>93986</v>
       </c>
@@ -2768,12 +2562,8 @@
       <c r="R28" t="s">
         <v>204</v>
       </c>
-      <c r="S28" s="2">
-        <f t="shared" si="0"/>
-        <v>22.424242424242426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>93987</v>
       </c>
@@ -2828,12 +2618,8 @@
       <c r="R29" t="s">
         <v>204</v>
       </c>
-      <c r="S29" s="2">
-        <f t="shared" si="0"/>
-        <v>17.575757575757578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>94090</v>
       </c>
@@ -2888,12 +2674,8 @@
       <c r="R30" t="s">
         <v>204</v>
       </c>
-      <c r="S30" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>94095</v>
       </c>
@@ -2948,12 +2730,8 @@
       <c r="R31" t="s">
         <v>204</v>
       </c>
-      <c r="S31" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>94099</v>
       </c>
@@ -3008,12 +2786,8 @@
       <c r="R32" t="s">
         <v>204</v>
       </c>
-      <c r="S32" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>94101</v>
       </c>
@@ -3068,12 +2842,8 @@
       <c r="R33" t="s">
         <v>204</v>
       </c>
-      <c r="S33" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>94103</v>
       </c>
@@ -3128,12 +2898,8 @@
       <c r="R34" t="s">
         <v>204</v>
       </c>
-      <c r="S34" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>94105</v>
       </c>
@@ -3188,12 +2954,8 @@
       <c r="R35" t="s">
         <v>204</v>
       </c>
-      <c r="S35" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>94111</v>
       </c>
@@ -3248,12 +3010,8 @@
       <c r="R36" t="s">
         <v>204</v>
       </c>
-      <c r="S36" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>94115</v>
       </c>
@@ -3308,12 +3066,8 @@
       <c r="R37" t="s">
         <v>204</v>
       </c>
-      <c r="S37" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>94116</v>
       </c>
@@ -3368,12 +3122,8 @@
       <c r="R38" t="s">
         <v>204</v>
       </c>
-      <c r="S38" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>94117</v>
       </c>
@@ -3428,12 +3178,8 @@
       <c r="R39" t="s">
         <v>204</v>
       </c>
-      <c r="S39" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>94119</v>
       </c>
@@ -3488,12 +3234,8 @@
       <c r="R40" t="s">
         <v>204</v>
       </c>
-      <c r="S40" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>94121</v>
       </c>
@@ -3548,12 +3290,8 @@
       <c r="R41" t="s">
         <v>204</v>
       </c>
-      <c r="S41" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>94132</v>
       </c>
@@ -3608,12 +3346,8 @@
       <c r="R42" t="s">
         <v>204</v>
       </c>
-      <c r="S42" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>94134</v>
       </c>
@@ -3668,12 +3402,8 @@
       <c r="R43" t="s">
         <v>204</v>
       </c>
-      <c r="S43" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>94135</v>
       </c>
@@ -3728,12 +3458,8 @@
       <c r="R44" t="s">
         <v>204</v>
       </c>
-      <c r="S44" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>94149</v>
       </c>
@@ -3788,12 +3514,8 @@
       <c r="R45" t="s">
         <v>204</v>
       </c>
-      <c r="S45" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>94161</v>
       </c>
@@ -3848,12 +3570,8 @@
       <c r="R46" t="s">
         <v>204</v>
       </c>
-      <c r="S46" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>94172</v>
       </c>
@@ -3908,12 +3626,8 @@
       <c r="R47" t="s">
         <v>204</v>
       </c>
-      <c r="S47" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>94183</v>
       </c>
@@ -3968,12 +3682,8 @@
       <c r="R48" t="s">
         <v>204</v>
       </c>
-      <c r="S48" s="2">
-        <f t="shared" si="0"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>94184</v>
       </c>
@@ -4028,12 +3738,8 @@
       <c r="R49" t="s">
         <v>204</v>
       </c>
-      <c r="S49" s="2">
-        <f t="shared" si="0"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>94187</v>
       </c>
@@ -4088,12 +3794,8 @@
       <c r="R50" t="s">
         <v>204</v>
       </c>
-      <c r="S50" s="2">
-        <f t="shared" si="0"/>
-        <v>21.212121212121215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>94188</v>
       </c>
@@ -4148,12 +3850,8 @@
       <c r="R51" t="s">
         <v>204</v>
       </c>
-      <c r="S51" s="2">
-        <f t="shared" si="0"/>
-        <v>16.060606060606062</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>94189</v>
       </c>
@@ -4208,12 +3906,8 @@
       <c r="R52" t="s">
         <v>204</v>
       </c>
-      <c r="S52" s="2">
-        <f t="shared" si="0"/>
-        <v>16.060606060606062</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>94191</v>
       </c>
@@ -4268,12 +3962,8 @@
       <c r="R53" t="s">
         <v>204</v>
       </c>
-      <c r="S53" s="2">
-        <f t="shared" si="0"/>
-        <v>25.151515151515152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>94299</v>
       </c>
@@ -4328,12 +4018,8 @@
       <c r="R54" t="s">
         <v>205</v>
       </c>
-      <c r="S54" s="2">
-        <f t="shared" si="0"/>
-        <v>34.545454545454547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>94300</v>
       </c>
@@ -4388,12 +4074,8 @@
       <c r="R55" t="s">
         <v>205</v>
       </c>
-      <c r="S55" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>94301</v>
       </c>
@@ -4448,12 +4130,8 @@
       <c r="R56" t="s">
         <v>205</v>
       </c>
-      <c r="S56" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>94308</v>
       </c>
@@ -4508,12 +4186,8 @@
       <c r="R57" t="s">
         <v>205</v>
       </c>
-      <c r="S57" s="2">
-        <f t="shared" si="0"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>94309</v>
       </c>
@@ -4568,12 +4242,8 @@
       <c r="R58" t="s">
         <v>205</v>
       </c>
-      <c r="S58" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>94311</v>
       </c>
@@ -4628,12 +4298,8 @@
       <c r="R59" t="s">
         <v>205</v>
       </c>
-      <c r="S59" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>94314</v>
       </c>
@@ -4688,12 +4354,8 @@
       <c r="R60" t="s">
         <v>205</v>
       </c>
-      <c r="S60" s="2">
-        <f t="shared" si="0"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>94316</v>
       </c>
@@ -4748,12 +4410,8 @@
       <c r="R61" t="s">
         <v>205</v>
       </c>
-      <c r="S61" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>94317</v>
       </c>
@@ -4808,12 +4466,8 @@
       <c r="R62" t="s">
         <v>205</v>
       </c>
-      <c r="S62" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>94320</v>
       </c>
@@ -4868,12 +4522,8 @@
       <c r="R63" t="s">
         <v>205</v>
       </c>
-      <c r="S63" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>94321</v>
       </c>
@@ -4928,12 +4578,8 @@
       <c r="R64" t="s">
         <v>205</v>
       </c>
-      <c r="S64" s="2">
-        <f t="shared" si="0"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>94326</v>
       </c>
@@ -4988,12 +4634,8 @@
       <c r="R65" t="s">
         <v>205</v>
       </c>
-      <c r="S65" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
         <v>94329</v>
       </c>
@@ -5048,12 +4690,8 @@
       <c r="R66" t="s">
         <v>205</v>
       </c>
-      <c r="S66" s="2">
-        <f t="shared" si="0"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
         <v>94331</v>
       </c>
@@ -5108,12 +4746,8 @@
       <c r="R67" t="s">
         <v>205</v>
       </c>
-      <c r="S67" s="2">
-        <f t="shared" ref="S67:S130" si="1">G67/3.3</f>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
         <v>94332</v>
       </c>
@@ -5168,12 +4802,8 @@
       <c r="R68" t="s">
         <v>205</v>
       </c>
-      <c r="S68" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>94335</v>
       </c>
@@ -5228,12 +4858,8 @@
       <c r="R69" t="s">
         <v>205</v>
       </c>
-      <c r="S69" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
         <v>94336</v>
       </c>
@@ -5288,12 +4914,8 @@
       <c r="R70" t="s">
         <v>205</v>
       </c>
-      <c r="S70" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>94337</v>
       </c>
@@ -5348,12 +4970,8 @@
       <c r="R71" t="s">
         <v>205</v>
       </c>
-      <c r="S71" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
         <v>94338</v>
       </c>
@@ -5408,12 +5026,8 @@
       <c r="R72" t="s">
         <v>205</v>
       </c>
-      <c r="S72" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
         <v>94340</v>
       </c>
@@ -5468,12 +5082,8 @@
       <c r="R73" t="s">
         <v>205</v>
       </c>
-      <c r="S73" s="2">
-        <f t="shared" si="1"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>94341</v>
       </c>
@@ -5528,12 +5138,8 @@
       <c r="R74" t="s">
         <v>205</v>
       </c>
-      <c r="S74" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
         <v>94344</v>
       </c>
@@ -5588,12 +5194,8 @@
       <c r="R75" t="s">
         <v>205</v>
       </c>
-      <c r="S75" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
         <v>94347</v>
       </c>
@@ -5648,12 +5250,8 @@
       <c r="R76" t="s">
         <v>205</v>
       </c>
-      <c r="S76" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
         <v>94348</v>
       </c>
@@ -5708,12 +5306,8 @@
       <c r="R77" t="s">
         <v>204</v>
       </c>
-      <c r="S77" s="2">
-        <f t="shared" si="1"/>
-        <v>24.545454545454547</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
         <v>94355</v>
       </c>
@@ -5768,12 +5362,8 @@
       <c r="R78" t="s">
         <v>204</v>
       </c>
-      <c r="S78" s="2">
-        <f t="shared" si="1"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="1">
         <v>94356</v>
       </c>
@@ -5828,12 +5418,8 @@
       <c r="R79" t="s">
         <v>204</v>
       </c>
-      <c r="S79" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
         <v>94357</v>
       </c>
@@ -5888,12 +5474,8 @@
       <c r="R80" t="s">
         <v>204</v>
       </c>
-      <c r="S80" s="2">
-        <f t="shared" si="1"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="1">
         <v>94358</v>
       </c>
@@ -5948,12 +5530,8 @@
       <c r="R81" t="s">
         <v>204</v>
       </c>
-      <c r="S81" s="2">
-        <f t="shared" si="1"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="1">
         <v>94362</v>
       </c>
@@ -6008,12 +5586,8 @@
       <c r="R82" t="s">
         <v>206</v>
       </c>
-      <c r="S82" s="2">
-        <f t="shared" si="1"/>
-        <v>4.2424242424242422</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="1">
         <v>94363</v>
       </c>
@@ -6068,12 +5642,8 @@
       <c r="R83" t="s">
         <v>206</v>
       </c>
-      <c r="S83" s="2">
-        <f t="shared" si="1"/>
-        <v>4.2424242424242422</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="1">
         <v>94389</v>
       </c>
@@ -6128,12 +5698,8 @@
       <c r="R84" t="s">
         <v>204</v>
       </c>
-      <c r="S84" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="1">
         <v>94394</v>
       </c>
@@ -6188,12 +5754,8 @@
       <c r="R85" t="s">
         <v>204</v>
       </c>
-      <c r="S85" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="1">
         <v>94454</v>
       </c>
@@ -6248,12 +5810,8 @@
       <c r="R86" t="s">
         <v>205</v>
       </c>
-      <c r="S86" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="1">
         <v>94456</v>
       </c>
@@ -6308,12 +5866,8 @@
       <c r="R87" t="s">
         <v>205</v>
       </c>
-      <c r="S87" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="1">
         <v>94457</v>
       </c>
@@ -6368,12 +5922,8 @@
       <c r="R88" t="s">
         <v>205</v>
       </c>
-      <c r="S88" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="1">
         <v>94459</v>
       </c>
@@ -6428,12 +5978,8 @@
       <c r="R89" t="s">
         <v>205</v>
       </c>
-      <c r="S89" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="1">
         <v>94460</v>
       </c>
@@ -6488,12 +6034,8 @@
       <c r="R90" t="s">
         <v>205</v>
       </c>
-      <c r="S90" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="1">
         <v>94461</v>
       </c>
@@ -6548,12 +6090,8 @@
       <c r="R91" t="s">
         <v>205</v>
       </c>
-      <c r="S91" s="2">
-        <f t="shared" si="1"/>
-        <v>19.696969696969699</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="1">
         <v>94462</v>
       </c>
@@ -6608,12 +6146,8 @@
       <c r="R92" t="s">
         <v>205</v>
       </c>
-      <c r="S92" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="1">
         <v>94464</v>
       </c>
@@ -6668,12 +6202,8 @@
       <c r="R93" t="s">
         <v>205</v>
       </c>
-      <c r="S93" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="1">
         <v>94465</v>
       </c>
@@ -6728,12 +6258,8 @@
       <c r="R94" t="s">
         <v>205</v>
       </c>
-      <c r="S94" s="2">
-        <f t="shared" si="1"/>
-        <v>19.696969696969699</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="1">
         <v>94466</v>
       </c>
@@ -6788,12 +6314,8 @@
       <c r="R95" t="s">
         <v>205</v>
       </c>
-      <c r="S95" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="1">
         <v>94467</v>
       </c>
@@ -6848,12 +6370,8 @@
       <c r="R96" t="s">
         <v>205</v>
       </c>
-      <c r="S96" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="1">
         <v>94468</v>
       </c>
@@ -6908,12 +6426,8 @@
       <c r="R97" t="s">
         <v>205</v>
       </c>
-      <c r="S97" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="1">
         <v>94474</v>
       </c>
@@ -6968,12 +6482,8 @@
       <c r="R98" t="s">
         <v>205</v>
       </c>
-      <c r="S98" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="1">
         <v>94477</v>
       </c>
@@ -7028,12 +6538,8 @@
       <c r="R99" t="s">
         <v>205</v>
       </c>
-      <c r="S99" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="1">
         <v>94479</v>
       </c>
@@ -7088,12 +6594,8 @@
       <c r="R100" t="s">
         <v>205</v>
       </c>
-      <c r="S100" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="1">
         <v>94480</v>
       </c>
@@ -7148,12 +6650,8 @@
       <c r="R101" t="s">
         <v>205</v>
       </c>
-      <c r="S101" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="1">
         <v>94484</v>
       </c>
@@ -7208,12 +6706,8 @@
       <c r="R102" t="s">
         <v>205</v>
       </c>
-      <c r="S102" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="1">
         <v>94498</v>
       </c>
@@ -7268,12 +6762,8 @@
       <c r="R103" t="s">
         <v>205</v>
       </c>
-      <c r="S103" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="1">
         <v>94499</v>
       </c>
@@ -7328,12 +6818,8 @@
       <c r="R104" t="s">
         <v>205</v>
       </c>
-      <c r="S104" s="2">
-        <f t="shared" si="1"/>
-        <v>17.272727272727273</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="1">
         <v>94503</v>
       </c>
@@ -7388,12 +6874,8 @@
       <c r="R105" t="s">
         <v>204</v>
       </c>
-      <c r="S105" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="1">
         <v>94505</v>
       </c>
@@ -7448,12 +6930,8 @@
       <c r="R106" t="s">
         <v>204</v>
       </c>
-      <c r="S106" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="1">
         <v>94506</v>
       </c>
@@ -7508,12 +6986,8 @@
       <c r="R107" t="s">
         <v>204</v>
       </c>
-      <c r="S107" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" s="1">
         <v>94551</v>
       </c>
@@ -7568,12 +7042,8 @@
       <c r="R108" t="s">
         <v>204</v>
       </c>
-      <c r="S108" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="1">
         <v>94553</v>
       </c>
@@ -7628,12 +7098,8 @@
       <c r="R109" t="s">
         <v>204</v>
       </c>
-      <c r="S109" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="1">
         <v>94554</v>
       </c>
@@ -7688,12 +7154,8 @@
       <c r="R110" t="s">
         <v>204</v>
       </c>
-      <c r="S110" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="1">
         <v>94557</v>
       </c>
@@ -7748,12 +7210,8 @@
       <c r="R111" t="s">
         <v>204</v>
       </c>
-      <c r="S111" s="2">
-        <f t="shared" si="1"/>
-        <v>24.848484848484851</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="1">
         <v>94558</v>
       </c>
@@ -7808,12 +7266,8 @@
       <c r="R112" t="s">
         <v>204</v>
       </c>
-      <c r="S112" s="2">
-        <f t="shared" si="1"/>
-        <v>18.181818181818183</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="1">
         <v>94559</v>
       </c>
@@ -7868,12 +7322,8 @@
       <c r="R113" t="s">
         <v>204</v>
       </c>
-      <c r="S113" s="2">
-        <f t="shared" si="1"/>
-        <v>24.848484848484851</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="1">
         <v>94561</v>
       </c>
@@ -7928,12 +7378,8 @@
       <c r="R114" t="s">
         <v>204</v>
       </c>
-      <c r="S114" s="2">
-        <f t="shared" si="1"/>
-        <v>20.303030303030305</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="1">
         <v>94569</v>
       </c>
@@ -7988,12 +7434,8 @@
       <c r="R115" t="s">
         <v>204</v>
       </c>
-      <c r="S115" s="2">
-        <f t="shared" si="1"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="1">
         <v>94570</v>
       </c>
@@ -8048,12 +7490,8 @@
       <c r="R116" t="s">
         <v>204</v>
       </c>
-      <c r="S116" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="1">
         <v>94571</v>
       </c>
@@ -8108,12 +7546,8 @@
       <c r="R117" t="s">
         <v>204</v>
       </c>
-      <c r="S117" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="1">
         <v>94572</v>
       </c>
@@ -8168,12 +7602,8 @@
       <c r="R118" t="s">
         <v>204</v>
       </c>
-      <c r="S118" s="2">
-        <f t="shared" si="1"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="1">
         <v>94573</v>
       </c>
@@ -8228,12 +7658,8 @@
       <c r="R119" t="s">
         <v>204</v>
       </c>
-      <c r="S119" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="1">
         <v>94574</v>
       </c>
@@ -8288,12 +7714,8 @@
       <c r="R120" t="s">
         <v>204</v>
       </c>
-      <c r="S120" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="1">
         <v>94575</v>
       </c>
@@ -8348,12 +7770,8 @@
       <c r="R121" t="s">
         <v>204</v>
       </c>
-      <c r="S121" s="2">
-        <f t="shared" si="1"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="1">
         <v>94576</v>
       </c>
@@ -8408,12 +7826,8 @@
       <c r="R122" t="s">
         <v>204</v>
       </c>
-      <c r="S122" s="2">
-        <f t="shared" si="1"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="1">
         <v>94577</v>
       </c>
@@ -8468,12 +7882,8 @@
       <c r="R123" t="s">
         <v>204</v>
       </c>
-      <c r="S123" s="2">
-        <f t="shared" si="1"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="1">
         <v>94596</v>
       </c>
@@ -8528,12 +7938,8 @@
       <c r="R124" t="s">
         <v>205</v>
       </c>
-      <c r="S124" s="2">
-        <f t="shared" si="1"/>
-        <v>36.969696969696969</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="1">
         <v>94597</v>
       </c>
@@ -8588,12 +7994,8 @@
       <c r="R125" t="s">
         <v>205</v>
       </c>
-      <c r="S125" s="2">
-        <f t="shared" si="1"/>
-        <v>25.151515151515152</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="1">
         <v>94598</v>
       </c>
@@ -8648,12 +8050,8 @@
       <c r="R126" t="s">
         <v>205</v>
       </c>
-      <c r="S126" s="2">
-        <f t="shared" si="1"/>
-        <v>23.939393939393941</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="1">
         <v>94599</v>
       </c>
@@ -8708,12 +8106,8 @@
       <c r="R127" t="s">
         <v>205</v>
       </c>
-      <c r="S127" s="2">
-        <f t="shared" si="1"/>
-        <v>23.939393939393941</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="1">
         <v>94600</v>
       </c>
@@ -8768,12 +8162,8 @@
       <c r="R128" t="s">
         <v>205</v>
       </c>
-      <c r="S128" s="2">
-        <f t="shared" si="1"/>
-        <v>25.151515151515152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="1">
         <v>94601</v>
       </c>
@@ -8828,12 +8218,8 @@
       <c r="R129" t="s">
         <v>205</v>
       </c>
-      <c r="S129" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="1">
         <v>94603</v>
       </c>
@@ -8888,12 +8274,8 @@
       <c r="R130" t="s">
         <v>205</v>
       </c>
-      <c r="S130" s="2">
-        <f t="shared" si="1"/>
-        <v>23.939393939393941</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="1">
         <v>94604</v>
       </c>
@@ -8948,12 +8330,8 @@
       <c r="R131" t="s">
         <v>205</v>
       </c>
-      <c r="S131" s="2">
-        <f t="shared" ref="S131:S194" si="2">G131/3.3</f>
-        <v>23.939393939393941</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="1">
         <v>94607</v>
       </c>
@@ -9008,12 +8386,8 @@
       <c r="R132" t="s">
         <v>205</v>
       </c>
-      <c r="S132" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="1">
         <v>94608</v>
       </c>
@@ -9068,12 +8442,8 @@
       <c r="R133" t="s">
         <v>205</v>
       </c>
-      <c r="S133" s="2">
-        <f t="shared" si="2"/>
-        <v>23.939393939393941</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="1">
         <v>94609</v>
       </c>
@@ -9128,12 +8498,8 @@
       <c r="R134" t="s">
         <v>205</v>
       </c>
-      <c r="S134" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="1">
         <v>94611</v>
       </c>
@@ -9188,12 +8554,8 @@
       <c r="R135" t="s">
         <v>205</v>
       </c>
-      <c r="S135" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="1">
         <v>94612</v>
       </c>
@@ -9248,12 +8610,8 @@
       <c r="R136" t="s">
         <v>205</v>
       </c>
-      <c r="S136" s="2">
-        <f t="shared" si="2"/>
-        <v>23.939393939393941</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="1">
         <v>94614</v>
       </c>
@@ -9308,12 +8666,8 @@
       <c r="R137" t="s">
         <v>205</v>
       </c>
-      <c r="S137" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="1">
         <v>94617</v>
       </c>
@@ -9368,12 +8722,8 @@
       <c r="R138" t="s">
         <v>205</v>
       </c>
-      <c r="S138" s="2">
-        <f t="shared" si="2"/>
-        <v>25.151515151515152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="1">
         <v>94620</v>
       </c>
@@ -9428,12 +8778,8 @@
       <c r="R139" t="s">
         <v>205</v>
       </c>
-      <c r="S139" s="2">
-        <f t="shared" si="2"/>
-        <v>36.969696969696969</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="1">
         <v>94621</v>
       </c>
@@ -9488,12 +8834,8 @@
       <c r="R140" t="s">
         <v>205</v>
       </c>
-      <c r="S140" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" s="1">
         <v>94624</v>
       </c>
@@ -9548,12 +8890,8 @@
       <c r="R141" t="s">
         <v>205</v>
       </c>
-      <c r="S141" s="2">
-        <f t="shared" si="2"/>
-        <v>23.939393939393941</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="1">
         <v>94625</v>
       </c>
@@ -9608,12 +8946,8 @@
       <c r="R142" t="s">
         <v>205</v>
       </c>
-      <c r="S142" s="2">
-        <f t="shared" si="2"/>
-        <v>23.939393939393941</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" s="1">
         <v>94626</v>
       </c>
@@ -9668,12 +9002,8 @@
       <c r="R143" t="s">
         <v>205</v>
       </c>
-      <c r="S143" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="1">
         <v>94627</v>
       </c>
@@ -9728,12 +9058,8 @@
       <c r="R144" t="s">
         <v>205</v>
       </c>
-      <c r="S144" s="2">
-        <f t="shared" si="2"/>
-        <v>23.939393939393941</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="1">
         <v>94628</v>
       </c>
@@ -9788,12 +9114,8 @@
       <c r="R145" t="s">
         <v>205</v>
       </c>
-      <c r="S145" s="2">
-        <f t="shared" si="2"/>
-        <v>25.151515151515152</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="1">
         <v>94631</v>
       </c>
@@ -9848,12 +9170,8 @@
       <c r="R146" t="s">
         <v>205</v>
       </c>
-      <c r="S146" s="2">
-        <f t="shared" si="2"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="1">
         <v>94632</v>
       </c>
@@ -9908,12 +9226,8 @@
       <c r="R147" t="s">
         <v>205</v>
       </c>
-      <c r="S147" s="2">
-        <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="1">
         <v>94633</v>
       </c>
@@ -9968,12 +9282,8 @@
       <c r="R148" t="s">
         <v>206</v>
       </c>
-      <c r="S148" s="2">
-        <f t="shared" si="2"/>
-        <v>12.424242424242426</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="1">
         <v>94662</v>
       </c>
@@ -10028,12 +9338,8 @@
       <c r="R149" t="s">
         <v>204</v>
       </c>
-      <c r="S149" s="2">
-        <f t="shared" si="2"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="1">
         <v>94670</v>
       </c>
@@ -10088,12 +9394,8 @@
       <c r="R150" t="s">
         <v>205</v>
       </c>
-      <c r="S150" s="2">
-        <f t="shared" si="2"/>
-        <v>15.151515151515152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" s="1">
         <v>94671</v>
       </c>
@@ -10148,12 +9450,8 @@
       <c r="R151" t="s">
         <v>205</v>
       </c>
-      <c r="S151" s="2">
-        <f t="shared" si="2"/>
-        <v>12.727272727272728</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" s="1">
         <v>94672</v>
       </c>
@@ -10208,12 +9506,8 @@
       <c r="R152" t="s">
         <v>205</v>
       </c>
-      <c r="S152" s="2">
-        <f t="shared" si="2"/>
-        <v>12.424242424242426</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" s="1">
         <v>94673</v>
       </c>
@@ -10268,12 +9562,8 @@
       <c r="R153" t="s">
         <v>205</v>
       </c>
-      <c r="S153" s="2">
-        <f t="shared" si="2"/>
-        <v>12.424242424242426</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" s="1">
         <v>94674</v>
       </c>
@@ -10328,12 +9618,8 @@
       <c r="R154" t="s">
         <v>205</v>
       </c>
-      <c r="S154" s="2">
-        <f t="shared" si="2"/>
-        <v>12.121212121212121</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155" s="1">
         <v>94677</v>
       </c>
@@ -10388,12 +9674,8 @@
       <c r="R155" t="s">
         <v>205</v>
       </c>
-      <c r="S155" s="2">
-        <f t="shared" si="2"/>
-        <v>15.757575757575758</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156" s="1">
         <v>94679</v>
       </c>
@@ -10448,12 +9730,8 @@
       <c r="R156" t="s">
         <v>205</v>
       </c>
-      <c r="S156" s="2">
-        <f t="shared" si="2"/>
-        <v>9.3939393939393945</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" s="1">
         <v>94680</v>
       </c>
@@ -10508,12 +9786,8 @@
       <c r="R157" t="s">
         <v>205</v>
       </c>
-      <c r="S157" s="2">
-        <f t="shared" si="2"/>
-        <v>9.3939393939393945</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" s="1">
         <v>94681</v>
       </c>
@@ -10568,12 +9842,8 @@
       <c r="R158" t="s">
         <v>205</v>
       </c>
-      <c r="S158" s="2">
-        <f t="shared" si="2"/>
-        <v>9.3939393939393945</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159" s="1">
         <v>94719</v>
       </c>
@@ -10628,12 +9898,8 @@
       <c r="R159" t="s">
         <v>205</v>
       </c>
-      <c r="S159" s="2">
-        <f t="shared" si="2"/>
-        <v>12.424242424242426</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160" s="1">
         <v>94720</v>
       </c>
@@ -10688,12 +9954,8 @@
       <c r="R160" t="s">
         <v>205</v>
       </c>
-      <c r="S160" s="2">
-        <f t="shared" si="2"/>
-        <v>12.424242424242426</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161" s="1">
         <v>94754</v>
       </c>
@@ -10748,12 +10010,8 @@
       <c r="R161" t="s">
         <v>205</v>
       </c>
-      <c r="S161" s="2">
-        <f t="shared" si="2"/>
-        <v>21.515151515151516</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162" s="1">
         <v>94755</v>
       </c>
@@ -10808,12 +10066,8 @@
       <c r="R162" t="s">
         <v>205</v>
       </c>
-      <c r="S162" s="2">
-        <f t="shared" si="2"/>
-        <v>21.515151515151516</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" s="1">
         <v>94756</v>
       </c>
@@ -10868,12 +10122,8 @@
       <c r="R163" t="s">
         <v>205</v>
       </c>
-      <c r="S163" s="2">
-        <f t="shared" si="2"/>
-        <v>21.515151515151516</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164" s="1">
         <v>94757</v>
       </c>
@@ -10928,12 +10178,8 @@
       <c r="R164" t="s">
         <v>205</v>
       </c>
-      <c r="S164" s="2">
-        <f t="shared" si="2"/>
-        <v>28.787878787878789</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165" s="1">
         <v>94758</v>
       </c>
@@ -10988,12 +10234,8 @@
       <c r="R165" t="s">
         <v>205</v>
       </c>
-      <c r="S165" s="2">
-        <f t="shared" si="2"/>
-        <v>32.424242424242429</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166" s="1">
         <v>94764</v>
       </c>
@@ -11048,12 +10290,8 @@
       <c r="R166" t="s">
         <v>206</v>
       </c>
-      <c r="S166" s="2">
-        <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" s="1">
         <v>94765</v>
       </c>
@@ -11108,12 +10346,8 @@
       <c r="R167" t="s">
         <v>206</v>
       </c>
-      <c r="S167" s="2">
-        <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168" s="1">
         <v>94766</v>
       </c>
@@ -11168,12 +10402,8 @@
       <c r="R168" t="s">
         <v>206</v>
       </c>
-      <c r="S168" s="2">
-        <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169" s="1">
         <v>94767</v>
       </c>
@@ -11228,12 +10458,8 @@
       <c r="R169" t="s">
         <v>206</v>
       </c>
-      <c r="S169" s="2">
-        <f t="shared" si="2"/>
-        <v>10.606060606060607</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170" s="1">
         <v>94772</v>
       </c>
@@ -11288,12 +10514,8 @@
       <c r="R170" t="s">
         <v>206</v>
       </c>
-      <c r="S170" s="2">
-        <f t="shared" si="2"/>
-        <v>12.121212121212121</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171" s="1">
         <v>94773</v>
       </c>
@@ -11348,12 +10570,8 @@
       <c r="R171" t="s">
         <v>206</v>
       </c>
-      <c r="S171" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363642</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172" s="1">
         <v>94774</v>
       </c>
@@ -11408,12 +10626,8 @@
       <c r="R172" t="s">
         <v>206</v>
       </c>
-      <c r="S172" s="2">
-        <f t="shared" si="2"/>
-        <v>12.121212121212121</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173" s="1">
         <v>94775</v>
       </c>
@@ -11468,12 +10682,8 @@
       <c r="R173" t="s">
         <v>206</v>
       </c>
-      <c r="S173" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363642</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174" s="1">
         <v>94776</v>
       </c>
@@ -11528,12 +10738,8 @@
       <c r="R174" t="s">
         <v>206</v>
       </c>
-      <c r="S174" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363642</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175" s="1">
         <v>94777</v>
       </c>
@@ -11588,12 +10794,8 @@
       <c r="R175" t="s">
         <v>206</v>
       </c>
-      <c r="S175" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363642</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176" s="1">
         <v>94778</v>
       </c>
@@ -11648,12 +10850,8 @@
       <c r="R176" t="s">
         <v>206</v>
       </c>
-      <c r="S176" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363642</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:18">
       <c r="A177" s="1">
         <v>94779</v>
       </c>
@@ -11708,12 +10906,8 @@
       <c r="R177" t="s">
         <v>206</v>
       </c>
-      <c r="S177" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363642</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:18">
       <c r="A178" s="1">
         <v>94780</v>
       </c>
@@ -11768,12 +10962,8 @@
       <c r="R178" t="s">
         <v>206</v>
       </c>
-      <c r="S178" s="2">
-        <f t="shared" si="2"/>
-        <v>12.121212121212121</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:18">
       <c r="A179" s="1">
         <v>94781</v>
       </c>
@@ -11828,12 +11018,8 @@
       <c r="R179" t="s">
         <v>206</v>
       </c>
-      <c r="S179" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363642</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180" s="1">
         <v>94782</v>
       </c>
@@ -11888,12 +11074,8 @@
       <c r="R180" t="s">
         <v>206</v>
       </c>
-      <c r="S180" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363642</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181" s="1">
         <v>94783</v>
       </c>
@@ -11948,12 +11130,8 @@
       <c r="R181" t="s">
         <v>206</v>
       </c>
-      <c r="S181" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7575757575757578</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:18">
       <c r="A182" s="1">
         <v>94784</v>
       </c>
@@ -12008,12 +11186,8 @@
       <c r="R182" t="s">
         <v>206</v>
       </c>
-      <c r="S182" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363642</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183" s="1">
         <v>94785</v>
       </c>
@@ -12068,12 +11242,8 @@
       <c r="R183" t="s">
         <v>206</v>
       </c>
-      <c r="S183" s="2">
-        <f t="shared" si="2"/>
-        <v>12.121212121212121</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:18">
       <c r="A184" s="1">
         <v>94786</v>
       </c>
@@ -12128,12 +11298,8 @@
       <c r="R184" t="s">
         <v>206</v>
       </c>
-      <c r="S184" s="2">
-        <f t="shared" si="2"/>
-        <v>12.121212121212121</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:18">
       <c r="A185" s="1">
         <v>94787</v>
       </c>
@@ -12188,12 +11354,8 @@
       <c r="R185" t="s">
         <v>206</v>
       </c>
-      <c r="S185" s="2">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363642</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:18">
       <c r="A186" s="1">
         <v>94793</v>
       </c>
@@ -12248,12 +11410,8 @@
       <c r="R186" t="s">
         <v>204</v>
       </c>
-      <c r="S186" s="2">
-        <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:18">
       <c r="A187" s="1">
         <v>94794</v>
       </c>
@@ -12308,12 +11466,8 @@
       <c r="R187" t="s">
         <v>204</v>
       </c>
-      <c r="S187" s="2">
-        <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:18">
       <c r="A188" s="1">
         <v>94795</v>
       </c>
@@ -12368,12 +11522,8 @@
       <c r="R188" t="s">
         <v>204</v>
       </c>
-      <c r="S188" s="2">
-        <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:18">
       <c r="A189" s="1">
         <v>94796</v>
       </c>
@@ -12428,12 +11578,8 @@
       <c r="R189" t="s">
         <v>204</v>
       </c>
-      <c r="S189" s="2">
-        <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:18">
       <c r="A190" s="1">
         <v>94798</v>
       </c>
@@ -12488,12 +11634,8 @@
       <c r="R190" t="s">
         <v>206</v>
       </c>
-      <c r="S190" s="2">
-        <f t="shared" si="2"/>
-        <v>7.2727272727272734</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:18">
       <c r="A191" s="1">
         <v>94799</v>
       </c>
@@ -12548,12 +11690,8 @@
       <c r="R191" t="s">
         <v>206</v>
       </c>
-      <c r="S191" s="2">
-        <f t="shared" si="2"/>
-        <v>7.2727272727272734</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:18">
       <c r="A192" s="1">
         <v>94889</v>
       </c>
@@ -12608,12 +11746,8 @@
       <c r="R192" t="s">
         <v>204</v>
       </c>
-      <c r="S192" s="2">
-        <f t="shared" si="2"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:18">
       <c r="A193" s="1">
         <v>94890</v>
       </c>
@@ -12668,12 +11802,8 @@
       <c r="R193" t="s">
         <v>204</v>
       </c>
-      <c r="S193" s="2">
-        <f t="shared" si="2"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:18">
       <c r="A194" s="1">
         <v>94891</v>
       </c>
@@ -12728,12 +11858,8 @@
       <c r="R194" t="s">
         <v>204</v>
       </c>
-      <c r="S194" s="2">
-        <f t="shared" si="2"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:18">
       <c r="A195" s="1">
         <v>94892</v>
       </c>
@@ -12788,12 +11914,8 @@
       <c r="R195" t="s">
         <v>204</v>
       </c>
-      <c r="S195" s="2">
-        <f t="shared" ref="S195:S258" si="3">G195/3.3</f>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:18">
       <c r="A196" s="1">
         <v>94893</v>
       </c>
@@ -12848,12 +11970,8 @@
       <c r="R196" t="s">
         <v>204</v>
       </c>
-      <c r="S196" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:18">
       <c r="A197" s="1">
         <v>94894</v>
       </c>
@@ -12908,12 +12026,8 @@
       <c r="R197" t="s">
         <v>204</v>
       </c>
-      <c r="S197" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:18">
       <c r="A198" s="1">
         <v>94895</v>
       </c>
@@ -12968,12 +12082,8 @@
       <c r="R198" t="s">
         <v>204</v>
       </c>
-      <c r="S198" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:18">
       <c r="A199" s="1">
         <v>94896</v>
       </c>
@@ -13028,12 +12138,8 @@
       <c r="R199" t="s">
         <v>204</v>
       </c>
-      <c r="S199" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:18">
       <c r="A200" s="1">
         <v>94897</v>
       </c>
@@ -13088,12 +12194,8 @@
       <c r="R200" t="s">
         <v>204</v>
       </c>
-      <c r="S200" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:18">
       <c r="A201" s="1">
         <v>94900</v>
       </c>
@@ -13148,12 +12250,8 @@
       <c r="R201" t="s">
         <v>204</v>
       </c>
-      <c r="S201" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202" s="1">
         <v>94901</v>
       </c>
@@ -13208,12 +12306,8 @@
       <c r="R202" t="s">
         <v>204</v>
       </c>
-      <c r="S202" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:18">
       <c r="A203" s="1">
         <v>94902</v>
       </c>
@@ -13268,12 +12362,8 @@
       <c r="R203" t="s">
         <v>204</v>
       </c>
-      <c r="S203" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:18">
       <c r="A204" s="1">
         <v>94903</v>
       </c>
@@ -13328,12 +12418,8 @@
       <c r="R204" t="s">
         <v>204</v>
       </c>
-      <c r="S204" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:18">
       <c r="A205" s="1">
         <v>94904</v>
       </c>
@@ -13388,12 +12474,8 @@
       <c r="R205" t="s">
         <v>204</v>
       </c>
-      <c r="S205" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:18">
       <c r="A206" s="1">
         <v>94906</v>
       </c>
@@ -13448,12 +12530,8 @@
       <c r="R206" t="s">
         <v>204</v>
       </c>
-      <c r="S206" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:18">
       <c r="A207" s="1">
         <v>94907</v>
       </c>
@@ -13508,12 +12586,8 @@
       <c r="R207" t="s">
         <v>204</v>
       </c>
-      <c r="S207" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:18">
       <c r="A208" s="1">
         <v>94908</v>
       </c>
@@ -13568,12 +12642,8 @@
       <c r="R208" t="s">
         <v>204</v>
       </c>
-      <c r="S208" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:18">
       <c r="A209" s="1">
         <v>94911</v>
       </c>
@@ -13628,12 +12698,8 @@
       <c r="R209" t="s">
         <v>204</v>
       </c>
-      <c r="S209" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:18">
       <c r="A210" s="1">
         <v>94913</v>
       </c>
@@ -13688,12 +12754,8 @@
       <c r="R210" t="s">
         <v>204</v>
       </c>
-      <c r="S210" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:18">
       <c r="A211" s="1">
         <v>94914</v>
       </c>
@@ -13748,12 +12810,8 @@
       <c r="R211" t="s">
         <v>204</v>
       </c>
-      <c r="S211" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:18">
       <c r="A212" s="1">
         <v>94915</v>
       </c>
@@ -13808,12 +12866,8 @@
       <c r="R212" t="s">
         <v>204</v>
       </c>
-      <c r="S212" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:18">
       <c r="A213" s="1">
         <v>94916</v>
       </c>
@@ -13868,12 +12922,8 @@
       <c r="R213" t="s">
         <v>204</v>
       </c>
-      <c r="S213" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:18">
       <c r="A214" s="1">
         <v>94917</v>
       </c>
@@ -13928,12 +12978,8 @@
       <c r="R214" t="s">
         <v>204</v>
       </c>
-      <c r="S214" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:18">
       <c r="A215" s="1">
         <v>94918</v>
       </c>
@@ -13988,12 +13034,8 @@
       <c r="R215" t="s">
         <v>204</v>
       </c>
-      <c r="S215" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:18">
       <c r="A216" s="1">
         <v>94919</v>
       </c>
@@ -14048,12 +13090,8 @@
       <c r="R216" t="s">
         <v>204</v>
       </c>
-      <c r="S216" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:18">
       <c r="A217" s="1">
         <v>94920</v>
       </c>
@@ -14108,12 +13146,8 @@
       <c r="R217" t="s">
         <v>204</v>
       </c>
-      <c r="S217" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:18">
       <c r="A218" s="1">
         <v>94921</v>
       </c>
@@ -14168,12 +13202,8 @@
       <c r="R218" t="s">
         <v>204</v>
       </c>
-      <c r="S218" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:18">
       <c r="A219" s="1">
         <v>94922</v>
       </c>
@@ -14228,12 +13258,8 @@
       <c r="R219" t="s">
         <v>204</v>
       </c>
-      <c r="S219" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:18">
       <c r="A220" s="1">
         <v>94925</v>
       </c>
@@ -14288,12 +13314,8 @@
       <c r="R220" t="s">
         <v>204</v>
       </c>
-      <c r="S220" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:18">
       <c r="A221" s="1">
         <v>94926</v>
       </c>
@@ -14348,12 +13370,8 @@
       <c r="R221" t="s">
         <v>204</v>
       </c>
-      <c r="S221" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:18">
       <c r="A222" s="1">
         <v>94927</v>
       </c>
@@ -14408,12 +13426,8 @@
       <c r="R222" t="s">
         <v>204</v>
       </c>
-      <c r="S222" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:18">
       <c r="A223" s="1">
         <v>94928</v>
       </c>
@@ -14468,12 +13482,8 @@
       <c r="R223" t="s">
         <v>204</v>
       </c>
-      <c r="S223" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:18">
       <c r="A224" s="1">
         <v>94929</v>
       </c>
@@ -14528,12 +13538,8 @@
       <c r="R224" t="s">
         <v>204</v>
       </c>
-      <c r="S224" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:18">
       <c r="A225" s="1">
         <v>94930</v>
       </c>
@@ -14588,12 +13594,8 @@
       <c r="R225" t="s">
         <v>204</v>
       </c>
-      <c r="S225" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:18">
       <c r="A226" s="1">
         <v>94931</v>
       </c>
@@ -14648,12 +13650,8 @@
       <c r="R226" t="s">
         <v>204</v>
       </c>
-      <c r="S226" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:18">
       <c r="A227" s="1">
         <v>94932</v>
       </c>
@@ -14708,12 +13706,8 @@
       <c r="R227" t="s">
         <v>204</v>
       </c>
-      <c r="S227" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:18">
       <c r="A228" s="1">
         <v>94934</v>
       </c>
@@ -14768,12 +13762,8 @@
       <c r="R228" t="s">
         <v>204</v>
       </c>
-      <c r="S228" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:18">
       <c r="A229" s="1">
         <v>94935</v>
       </c>
@@ -14828,12 +13818,8 @@
       <c r="R229" t="s">
         <v>204</v>
       </c>
-      <c r="S229" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:18">
       <c r="A230" s="1">
         <v>94937</v>
       </c>
@@ -14888,12 +13874,8 @@
       <c r="R230" t="s">
         <v>204</v>
       </c>
-      <c r="S230" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:18">
       <c r="A231" s="1">
         <v>94940</v>
       </c>
@@ -14948,12 +13930,8 @@
       <c r="R231" t="s">
         <v>204</v>
       </c>
-      <c r="S231" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:18">
       <c r="A232" s="1">
         <v>94943</v>
       </c>
@@ -15008,12 +13986,8 @@
       <c r="R232" t="s">
         <v>204</v>
       </c>
-      <c r="S232" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:18">
       <c r="A233" s="1">
         <v>94953</v>
       </c>
@@ -15068,12 +14042,8 @@
       <c r="R233" t="s">
         <v>204</v>
       </c>
-      <c r="S233" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:18">
       <c r="A234" s="1">
         <v>94955</v>
       </c>
@@ -15128,12 +14098,8 @@
       <c r="R234" t="s">
         <v>204</v>
       </c>
-      <c r="S234" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:18">
       <c r="A235" s="1">
         <v>94959</v>
       </c>
@@ -15188,12 +14154,8 @@
       <c r="R235" t="s">
         <v>204</v>
       </c>
-      <c r="S235" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:18">
       <c r="A236" s="1">
         <v>94960</v>
       </c>
@@ -15248,12 +14210,8 @@
       <c r="R236" t="s">
         <v>204</v>
       </c>
-      <c r="S236" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:18">
       <c r="A237" s="1">
         <v>94961</v>
       </c>
@@ -15308,12 +14266,8 @@
       <c r="R237" t="s">
         <v>204</v>
       </c>
-      <c r="S237" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:18">
       <c r="A238" s="1">
         <v>94962</v>
       </c>
@@ -15368,12 +14322,8 @@
       <c r="R238" t="s">
         <v>204</v>
       </c>
-      <c r="S238" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:18">
       <c r="A239" s="1">
         <v>94964</v>
       </c>
@@ -15428,12 +14378,8 @@
       <c r="R239" t="s">
         <v>204</v>
       </c>
-      <c r="S239" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:18">
       <c r="A240" s="1">
         <v>94966</v>
       </c>
@@ -15488,12 +14434,8 @@
       <c r="R240" t="s">
         <v>204</v>
       </c>
-      <c r="S240" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:18">
       <c r="A241" s="1">
         <v>94967</v>
       </c>
@@ -15548,12 +14490,8 @@
       <c r="R241" t="s">
         <v>204</v>
       </c>
-      <c r="S241" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:18">
       <c r="A242" s="1">
         <v>94969</v>
       </c>
@@ -15608,12 +14546,8 @@
       <c r="R242" t="s">
         <v>204</v>
       </c>
-      <c r="S242" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:18">
       <c r="A243" s="1">
         <v>94971</v>
       </c>
@@ -15668,12 +14602,8 @@
       <c r="R243" t="s">
         <v>206</v>
       </c>
-      <c r="S243" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:18">
       <c r="A244" s="1">
         <v>94972</v>
       </c>
@@ -15728,12 +14658,8 @@
       <c r="R244" t="s">
         <v>206</v>
       </c>
-      <c r="S244" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:18">
       <c r="A245" s="1">
         <v>94973</v>
       </c>
@@ -15788,12 +14714,8 @@
       <c r="R245" t="s">
         <v>206</v>
       </c>
-      <c r="S245" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:18">
       <c r="A246" s="1">
         <v>94974</v>
       </c>
@@ -15848,12 +14770,8 @@
       <c r="R246" t="s">
         <v>206</v>
       </c>
-      <c r="S246" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:18">
       <c r="A247" s="1">
         <v>94975</v>
       </c>
@@ -15908,12 +14826,8 @@
       <c r="R247" t="s">
         <v>206</v>
       </c>
-      <c r="S247" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:18">
       <c r="A248" s="1">
         <v>94976</v>
       </c>
@@ -15968,12 +14882,8 @@
       <c r="R248" t="s">
         <v>206</v>
       </c>
-      <c r="S248" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:18">
       <c r="A249" s="1">
         <v>94977</v>
       </c>
@@ -16028,12 +14938,8 @@
       <c r="R249" t="s">
         <v>206</v>
       </c>
-      <c r="S249" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:18">
       <c r="A250" s="1">
         <v>94978</v>
       </c>
@@ -16088,12 +14994,8 @@
       <c r="R250" t="s">
         <v>206</v>
       </c>
-      <c r="S250" s="2">
-        <f t="shared" si="3"/>
-        <v>17.878787878787879</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:18">
       <c r="A251" s="1">
         <v>94980</v>
       </c>
@@ -16148,12 +15050,8 @@
       <c r="R251" t="s">
         <v>204</v>
       </c>
-      <c r="S251" s="2">
-        <f t="shared" si="3"/>
-        <v>24.848484848484851</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:18">
       <c r="A252" s="1">
         <v>94981</v>
       </c>
@@ -16208,12 +15106,8 @@
       <c r="R252" t="s">
         <v>206</v>
       </c>
-      <c r="S252" s="2">
-        <f t="shared" si="3"/>
-        <v>7.8787878787878789</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:18">
       <c r="A253" s="1">
         <v>94988</v>
       </c>
@@ -16268,12 +15162,8 @@
       <c r="R253" t="s">
         <v>204</v>
       </c>
-      <c r="S253" s="2">
-        <f t="shared" si="3"/>
-        <v>4.8484848484848486</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254" s="1">
         <v>94989</v>
       </c>
@@ -16328,12 +15218,8 @@
       <c r="R254" t="s">
         <v>204</v>
       </c>
-      <c r="S254" s="2">
-        <f t="shared" si="3"/>
-        <v>4.8484848484848486</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:18">
       <c r="A255" s="1">
         <v>94990</v>
       </c>
@@ -16388,12 +15274,8 @@
       <c r="R255" t="s">
         <v>204</v>
       </c>
-      <c r="S255" s="2">
-        <f t="shared" si="3"/>
-        <v>4.8484848484848486</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:18">
       <c r="A256" s="1">
         <v>94996</v>
       </c>
@@ -16448,12 +15330,8 @@
       <c r="R256" t="s">
         <v>204</v>
       </c>
-      <c r="S256" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:18">
       <c r="A257" s="1">
         <v>94997</v>
       </c>
@@ -16508,12 +15386,8 @@
       <c r="R257" t="s">
         <v>204</v>
       </c>
-      <c r="S257" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:18">
       <c r="A258" s="1">
         <v>95014</v>
       </c>
@@ -16568,12 +15442,8 @@
       <c r="R258" t="s">
         <v>204</v>
       </c>
-      <c r="S258" s="2">
-        <f t="shared" si="3"/>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:18">
       <c r="A259" s="1">
         <v>95017</v>
       </c>
@@ -16628,12 +15498,8 @@
       <c r="R259" t="s">
         <v>204</v>
       </c>
-      <c r="S259" s="2">
-        <f t="shared" ref="S259:S267" si="4">G259/3.3</f>
-        <v>25.454545454545457</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260" s="1">
         <v>95084</v>
       </c>
@@ -16688,12 +15554,8 @@
       <c r="R260" t="s">
         <v>204</v>
       </c>
-      <c r="S260" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:18">
       <c r="A261" s="1">
         <v>95091</v>
       </c>
@@ -16748,12 +15610,8 @@
       <c r="R261" t="s">
         <v>205</v>
       </c>
-      <c r="S261" s="2">
-        <f t="shared" si="4"/>
-        <v>19.090909090909093</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:18">
       <c r="A262" s="1">
         <v>95115</v>
       </c>
@@ -16808,12 +15666,8 @@
       <c r="R262" t="s">
         <v>204</v>
       </c>
-      <c r="S262" s="2">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:18">
       <c r="A263" s="1">
         <v>95116</v>
       </c>
@@ -16868,12 +15722,8 @@
       <c r="R263" t="s">
         <v>204</v>
       </c>
-      <c r="S263" s="2">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:18">
       <c r="A264" s="1">
         <v>95117</v>
       </c>
@@ -16928,12 +15778,8 @@
       <c r="R264" t="s">
         <v>204</v>
       </c>
-      <c r="S264" s="2">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:18">
       <c r="A265" s="1">
         <v>95118</v>
       </c>
@@ -16988,12 +15834,8 @@
       <c r="R265" t="s">
         <v>204</v>
       </c>
-      <c r="S265" s="2">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:18">
       <c r="A266" s="1">
         <v>95119</v>
       </c>
@@ -17048,12 +15890,8 @@
       <c r="R266" t="s">
         <v>204</v>
       </c>
-      <c r="S266" s="2">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:18">
       <c r="A267" s="1">
         <v>95120</v>
       </c>
@@ -17108,35 +15946,8 @@
       <c r="R267" t="s">
         <v>206</v>
       </c>
-      <c r="S267" s="2">
-        <f t="shared" si="4"/>
-        <v>5.1515151515151514</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S267" xr:uid="{4F4B7461-AAAB-F74E-A5DA-9F2136EAD4A3}">
-    <filterColumn colId="18">
-      <filters>
-        <filter val="15"/>
-        <filter val="16"/>
-        <filter val="17"/>
-        <filter val="18"/>
-        <filter val="19"/>
-        <filter val="20"/>
-        <filter val="21"/>
-        <filter val="22"/>
-        <filter val="23"/>
-        <filter val="24"/>
-        <filter val="25"/>
-        <filter val="29"/>
-        <filter val="30"/>
-        <filter val="32"/>
-        <filter val="33"/>
-        <filter val="35"/>
-        <filter val="37"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>